--- a/REGULAR/OJT/TOLEDO, LORNA.xlsx
+++ b/REGULAR/OJT/TOLEDO, LORNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\REGULAR DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1123,7 +1123,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1166,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1230,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1356,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1684,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1945,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2011,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2135,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2191,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2266,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2309,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2375,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2431,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2529,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2592,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,12 +3036,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K525"/>
+  <dimension ref="A2:M525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A247" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F2:H5"/>
-      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A244" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="P251" sqref="P251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3059,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3128,7 +3128,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3141,7 +3141,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3158,7 +3158,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3202,7 +3202,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>190</v>
+        <v>197.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3212,12 +3212,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>280</v>
+        <v>292.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3235,7 +3236,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>38169</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>38200</v>
@@ -3276,7 +3277,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A81" si="0">EDATE(A12,1)</f>
         <v>38231</v>
@@ -3297,7 +3298,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3318,7 +3319,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -3339,7 +3340,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -7662,7 +7663,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <f t="shared" ref="A221:A256" si="3">EDATE(A220,1)</f>
+        <f t="shared" ref="A221:A268" si="3">EDATE(A220,1)</f>
         <v>44075</v>
       </c>
       <c r="B221" s="20"/>
@@ -8362,13 +8363,15 @@
         <v>44986</v>
       </c>
       <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
@@ -8381,13 +8384,15 @@
         <v>45017</v>
       </c>
       <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
@@ -8400,13 +8405,15 @@
         <v>45047</v>
       </c>
       <c r="B256" s="20"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D256" s="39"/>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H256" s="39"/>
       <c r="I256" s="9"/>
@@ -8414,15 +8421,20 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="40"/>
+      <c r="A257" s="40">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
       <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
@@ -8430,15 +8442,20 @@
       <c r="K257" s="20"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40"/>
+      <c r="A258" s="40">
+        <f t="shared" si="3"/>
+        <v>45108</v>
+      </c>
       <c r="B258" s="20"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D258" s="39"/>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G258" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
@@ -8446,15 +8463,20 @@
       <c r="K258" s="20"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="40"/>
+      <c r="A259" s="40">
+        <f t="shared" si="3"/>
+        <v>45139</v>
+      </c>
       <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
@@ -8462,15 +8484,20 @@
       <c r="K259" s="20"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="40"/>
+      <c r="A260" s="40">
+        <f t="shared" si="3"/>
+        <v>45170</v>
+      </c>
       <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
@@ -8478,15 +8505,20 @@
       <c r="K260" s="20"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="40"/>
+      <c r="A261" s="40">
+        <f t="shared" si="3"/>
+        <v>45200</v>
+      </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
@@ -8494,15 +8526,20 @@
       <c r="K261" s="49"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="40"/>
+      <c r="A262" s="40">
+        <f t="shared" si="3"/>
+        <v>45231</v>
+      </c>
       <c r="B262" s="20"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
@@ -8510,15 +8547,24 @@
       <c r="K262" s="20"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="40"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="39"/>
+      <c r="A263" s="40">
+        <f t="shared" si="3"/>
+        <v>45261</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D263" s="39">
+        <v>5</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
@@ -8526,7 +8572,10 @@
       <c r="K263" s="20"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
+      <c r="A264" s="40">
+        <f t="shared" si="3"/>
+        <v>45292</v>
+      </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -8542,7 +8591,10 @@
       <c r="K264" s="20"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="40"/>
+      <c r="A265" s="40">
+        <f t="shared" si="3"/>
+        <v>45323</v>
+      </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
       <c r="D265" s="39"/>
@@ -8558,7 +8610,10 @@
       <c r="K265" s="20"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="40"/>
+      <c r="A266" s="40">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
       <c r="D266" s="39"/>
@@ -8574,7 +8629,10 @@
       <c r="K266" s="49"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="40"/>
+      <c r="A267" s="40">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
       <c r="D267" s="39"/>
@@ -8590,7 +8648,10 @@
       <c r="K267" s="49"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="40"/>
+      <c r="A268" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
